--- a/datasets/meetreq_training.xlsx
+++ b/datasets/meetreq_training.xlsx
@@ -2,23 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10404" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="training" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -29,7 +27,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,25 +49,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -364,11 +373,11 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -458,7 +467,7 @@
           <t>Rabu</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>43705.58333333334</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -526,7 +535,7 @@
           <t>Rabu</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>43705.58333333334</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -594,7 +603,7 @@
           <t>Rabu</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>43712.58333333334</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -662,7 +671,7 @@
           <t>Rabu</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>43712.58333333334</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -730,7 +739,7 @@
           <t>Kamis</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>43706.58333333334</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -798,7 +807,7 @@
           <t>Kamis</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>43706.58333333334</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -866,7 +875,7 @@
           <t>Kamis</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>43706.58333333334</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -934,7 +943,7 @@
           <t>Jumat</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>43707.58333333334</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -1002,7 +1011,7 @@
           <t>Jumat</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>43707.58333333334</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1070,7 +1079,7 @@
           <t>Jumat</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>43707.58333333334</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -1138,7 +1147,7 @@
           <t>Sabtu</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>43708.58333333334</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1206,7 +1215,7 @@
           <t>Sabtu</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>43708.58333333334</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -1274,7 +1283,7 @@
           <t>Sabtu</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>43708.58333333334</v>
       </c>
       <c r="E14" t="inlineStr">
